--- a/data/trans_orig/IP2502_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2502_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB309F4-C3A6-451D-B3CF-8C762E4E7198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23995504-8705-4DF7-AFE7-2656F725157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DD46B50C-56DC-4105-BBA8-F43BFC4967F9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{112D1184-F3D9-4CCA-B2A2-0CF679E8731F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
@@ -128,36 +158,6 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
     <t>Más de 3h</t>
   </si>
   <si>
@@ -191,9 +191,147 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
     <t>43,89%</t>
   </si>
   <si>
@@ -248,33 +386,6 @@
     <t>25,87%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
     <t>6,93%</t>
   </si>
   <si>
@@ -302,115 +413,31 @@
     <t>9,46%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>41,43%</t>
@@ -465,33 +492,6 @@
   </si>
   <si>
     <t>23,36%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
   </si>
   <si>
     <t>6,83%</t>
@@ -910,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3678E95C-5037-4642-824A-BF2006055B14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D76FF10-F6D9-480C-9AA8-63B7F69D934C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1028,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D4" s="7">
-        <v>37929</v>
+        <v>55114</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1043,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="I4" s="7">
-        <v>26324</v>
+        <v>56228</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1058,10 +1058,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="N4" s="7">
-        <v>64253</v>
+        <v>111343</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1079,10 +1079,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7">
-        <v>15358</v>
+        <v>37929</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1094,10 +1094,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>12764</v>
+        <v>26324</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1109,10 +1109,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="N5" s="7">
-        <v>28122</v>
+        <v>64253</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1130,10 +1130,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>55114</v>
+        <v>15358</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1145,10 +1145,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>56228</v>
+        <v>12764</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1160,10 +1160,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>111343</v>
+        <v>28122</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1285,10 +1285,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7">
-        <v>176136</v>
+        <v>56532</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1300,10 +1300,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="I9" s="7">
-        <v>145939</v>
+        <v>56260</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1315,10 +1315,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>414</v>
+        <v>165</v>
       </c>
       <c r="N9" s="7">
-        <v>322074</v>
+        <v>112792</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1336,10 +1336,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D10" s="7">
-        <v>97011</v>
+        <v>85295</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1351,10 +1351,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>72774</v>
+        <v>85597</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1366,10 +1366,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N10" s="7">
-        <v>169785</v>
+        <v>170892</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1387,10 +1387,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>100384</v>
+        <v>49544</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1402,10 +1402,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>98893</v>
+        <v>41981</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1417,10 +1417,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="N11" s="7">
-        <v>199277</v>
+        <v>91525</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1438,10 +1438,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D12" s="7">
-        <v>27811</v>
+        <v>13684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1453,10 +1453,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>27410</v>
+        <v>13310</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1468,10 +1468,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="N12" s="7">
-        <v>55221</v>
+        <v>26994</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1489,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>401342</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1504,10 +1504,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="I13" s="7">
-        <v>345016</v>
+        <v>197147</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1519,10 +1519,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>933</v>
+        <v>551</v>
       </c>
       <c r="N13" s="7">
-        <v>746357</v>
+        <v>402202</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7">
-        <v>85295</v>
+        <v>100384</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1557,10 +1557,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>85597</v>
+        <v>98893</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1572,10 +1572,10 @@
         <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="N14" s="7">
-        <v>170892</v>
+        <v>199277</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1593,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="D15" s="7">
-        <v>49544</v>
+        <v>176136</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1608,10 +1608,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="I15" s="7">
-        <v>41981</v>
+        <v>145939</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1623,10 +1623,10 @@
         <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>123</v>
+        <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>91525</v>
+        <v>322074</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1644,10 +1644,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7">
-        <v>56532</v>
+        <v>97011</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1659,10 +1659,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>56260</v>
+        <v>72774</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1674,10 +1674,10 @@
         <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="N16" s="7">
-        <v>112792</v>
+        <v>169785</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1695,10 +1695,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>13684</v>
+        <v>27811</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1710,10 +1710,10 @@
         <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>13310</v>
+        <v>27410</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1725,10 +1725,10 @@
         <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>26994</v>
+        <v>55221</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1746,10 +1746,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>401342</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1761,10 +1761,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>455</v>
       </c>
       <c r="I18" s="7">
-        <v>197147</v>
+        <v>345016</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1776,10 +1776,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>551</v>
+        <v>933</v>
       </c>
       <c r="N18" s="7">
-        <v>402202</v>
+        <v>746357</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>398</v>
+        <v>302</v>
       </c>
       <c r="D19" s="7">
-        <v>299360</v>
+        <v>212030</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -1814,10 +1814,10 @@
         <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I19" s="7">
-        <v>257859</v>
+        <v>211381</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -1829,10 +1829,10 @@
         <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>760</v>
+        <v>621</v>
       </c>
       <c r="N19" s="7">
-        <v>557219</v>
+        <v>423411</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -1850,10 +1850,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="D20" s="7">
-        <v>161913</v>
+        <v>299360</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>134</v>
@@ -1865,10 +1865,10 @@
         <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="I20" s="7">
-        <v>127519</v>
+        <v>257859</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>137</v>
@@ -1880,10 +1880,10 @@
         <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>396</v>
+        <v>760</v>
       </c>
       <c r="N20" s="7">
-        <v>289432</v>
+        <v>557219</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>140</v>
@@ -1901,10 +1901,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7">
-        <v>212030</v>
+        <v>161913</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>143</v>
@@ -1916,10 +1916,10 @@
         <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="I21" s="7">
-        <v>211381</v>
+        <v>127519</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>146</v>
@@ -1931,10 +1931,10 @@
         <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>621</v>
+        <v>396</v>
       </c>
       <c r="N21" s="7">
-        <v>423411</v>
+        <v>289432</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>149</v>
